--- a/team_specific_matrix/Georgia St._A.xlsx
+++ b/team_specific_matrix/Georgia St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1778846153846154</v>
+        <v>0.1800766283524904</v>
       </c>
       <c r="C2">
-        <v>0.5913461538461539</v>
+        <v>0.5938697318007663</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004807692307692308</v>
+        <v>0.007662835249042145</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1730769230769231</v>
+        <v>0.1647509578544061</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05288461538461538</v>
+        <v>0.05363984674329502</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01587301587301587</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="C3">
-        <v>0.02380952380952381</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007936507936507936</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.753968253968254</v>
+        <v>0.7579617834394905</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1984126984126984</v>
+        <v>0.2038216560509554</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06060606060606061</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7272727272727273</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2121212121212121</v>
+        <v>0.2391304347826087</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05590062111801242</v>
+        <v>0.05911330049261083</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01863354037267081</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07453416149068323</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2173913043478261</v>
+        <v>0.2463054187192118</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01863354037267081</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1490683229813665</v>
+        <v>0.1477832512315271</v>
       </c>
       <c r="R6">
-        <v>0.06211180124223602</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="S6">
-        <v>0.4037267080745341</v>
+        <v>0.374384236453202</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08426966292134831</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01123595505617977</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03370786516853932</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1629213483146068</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01123595505617977</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1966292134831461</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="R7">
-        <v>0.07303370786516854</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="S7">
-        <v>0.4269662921348314</v>
+        <v>0.4305555555555556</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06788511749347259</v>
+        <v>0.07610993657505286</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01566579634464752</v>
+        <v>0.01902748414376321</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07571801566579635</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1305483028720627</v>
+        <v>0.1353065539112051</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007832898172323759</v>
+        <v>0.008456659619450317</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1801566579634465</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R8">
-        <v>0.1096605744125326</v>
+        <v>0.105708245243129</v>
       </c>
       <c r="S8">
-        <v>0.412532637075718</v>
+        <v>0.4016913319238901</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08275862068965517</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02068965517241379</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04137931034482759</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1379310344827586</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01379310344827586</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2344827586206897</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="R9">
-        <v>0.06206896551724138</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="S9">
-        <v>0.4068965517241379</v>
+        <v>0.3850574712643678</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1127744510978044</v>
+        <v>0.1090764331210191</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01896207584830339</v>
+        <v>0.01990445859872611</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05888223552894212</v>
+        <v>0.05812101910828026</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1017964071856287</v>
+        <v>0.1170382165605096</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01596806387225549</v>
+        <v>0.01592356687898089</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2295409181636726</v>
+        <v>0.2197452229299363</v>
       </c>
       <c r="R10">
-        <v>0.08483033932135728</v>
+        <v>0.08200636942675159</v>
       </c>
       <c r="S10">
-        <v>0.3772455089820359</v>
+        <v>0.3781847133757962</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1617647058823529</v>
+        <v>0.1656804733727811</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08088235294117647</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K11">
-        <v>0.2242647058823529</v>
+        <v>0.2218934911242604</v>
       </c>
       <c r="L11">
-        <v>0.5147058823529411</v>
+        <v>0.514792899408284</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01838235294117647</v>
+        <v>0.02071005917159763</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7531645569620253</v>
+        <v>0.7329842931937173</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.189873417721519</v>
+        <v>0.2094240837696335</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0379746835443038</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0189873417721519</v>
+        <v>0.02617801047120419</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.675</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.025</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006896551724137931</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2137931034482759</v>
+        <v>0.1927083333333333</v>
       </c>
       <c r="I15">
-        <v>0.06896551724137931</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="J15">
-        <v>0.3586206896551724</v>
+        <v>0.375</v>
       </c>
       <c r="K15">
-        <v>0.06206896551724138</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02068965517241379</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04827586206896552</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2206896551724138</v>
+        <v>0.2239583333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01351351351351351</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1891891891891892</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="I16">
-        <v>0.0472972972972973</v>
+        <v>0.03763440860215054</v>
       </c>
       <c r="J16">
-        <v>0.3783783783783784</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="K16">
-        <v>0.1554054054054054</v>
+        <v>0.1397849462365591</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0472972972972973</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05405405405405406</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1148648648648649</v>
+        <v>0.1182795698924731</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02307692307692308</v>
+        <v>0.02306079664570231</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1564102564102564</v>
+        <v>0.1593291404612159</v>
       </c>
       <c r="I17">
-        <v>0.1</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="J17">
-        <v>0.4384615384615385</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="K17">
-        <v>0.08717948717948718</v>
+        <v>0.09853249475890985</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01794871794871795</v>
+        <v>0.01677148846960168</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06153846153846154</v>
+        <v>0.06289308176100629</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01875</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.24375</v>
+        <v>0.2198952879581152</v>
       </c>
       <c r="I18">
-        <v>0.0625</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="J18">
-        <v>0.3875</v>
+        <v>0.4031413612565445</v>
       </c>
       <c r="K18">
-        <v>0.09375</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01875</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0625</v>
+        <v>0.05759162303664921</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1125</v>
+        <v>0.1204188481675393</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01656920077972709</v>
+        <v>0.01892744479495268</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2212475633528265</v>
+        <v>0.2271293375394322</v>
       </c>
       <c r="I19">
-        <v>0.07212475633528265</v>
+        <v>0.07097791798107256</v>
       </c>
       <c r="J19">
-        <v>0.3654970760233918</v>
+        <v>0.3501577287066246</v>
       </c>
       <c r="K19">
-        <v>0.115009746588694</v>
+        <v>0.1190851735015773</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01656920077972709</v>
+        <v>0.01735015772870662</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.04775828460038986</v>
+        <v>0.05520504731861198</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.145224171539961</v>
+        <v>0.1411671924290221</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Georgia St._A.xlsx
+++ b/team_specific_matrix/Georgia St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1800766283524904</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C2">
-        <v>0.5938697318007663</v>
+        <v>0.6068965517241379</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007662835249042145</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1647509578544061</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05363984674329502</v>
+        <v>0.05862068965517241</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01273885350318471</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="C3">
-        <v>0.01910828025477707</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006369426751592357</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7579617834394905</v>
+        <v>0.7653631284916201</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2038216560509554</v>
+        <v>0.1955307262569832</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06521739130434782</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6956521739130435</v>
+        <v>0.6875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2391304347826087</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05911330049261083</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01970443349753695</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07389162561576355</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2463054187192118</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02463054187192118</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1477832512315271</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="R6">
-        <v>0.0541871921182266</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="S6">
-        <v>0.374384236453202</v>
+        <v>0.3705357142857143</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07870370370370371</v>
+        <v>0.08050847457627118</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01388888888888889</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02777777777777778</v>
+        <v>0.02966101694915254</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1527777777777778</v>
+        <v>0.1483050847457627</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009259259259259259</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2083333333333333</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="R7">
-        <v>0.07870370370370371</v>
+        <v>0.08050847457627118</v>
       </c>
       <c r="S7">
-        <v>0.4305555555555556</v>
+        <v>0.4279661016949153</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07610993657505286</v>
+        <v>0.07279693486590039</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01902748414376321</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07188160676532769</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1353065539112051</v>
+        <v>0.1302681992337165</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.008456659619450317</v>
+        <v>0.007662835249042145</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1818181818181818</v>
+        <v>0.1800766283524904</v>
       </c>
       <c r="R8">
-        <v>0.105708245243129</v>
+        <v>0.1053639846743295</v>
       </c>
       <c r="S8">
-        <v>0.4016913319238901</v>
+        <v>0.417624521072797</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09195402298850575</v>
+        <v>0.095</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02873563218390805</v>
+        <v>0.025</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05172413793103448</v>
+        <v>0.05</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.132183908045977</v>
+        <v>0.13</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01149425287356322</v>
+        <v>0.01</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2413793103448276</v>
+        <v>0.235</v>
       </c>
       <c r="R9">
-        <v>0.05747126436781609</v>
+        <v>0.055</v>
       </c>
       <c r="S9">
-        <v>0.3850574712643678</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1090764331210191</v>
+        <v>0.11151339608979</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01990445859872611</v>
+        <v>0.01955104996379435</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05812101910828026</v>
+        <v>0.05792903692976104</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1170382165605096</v>
+        <v>0.1165821868211441</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01592356687898089</v>
+        <v>0.01520637219406227</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2197452229299363</v>
+        <v>0.220854453294714</v>
       </c>
       <c r="R10">
-        <v>0.08200636942675159</v>
+        <v>0.08254887762490949</v>
       </c>
       <c r="S10">
-        <v>0.3781847133757962</v>
+        <v>0.3758146270818248</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1656804733727811</v>
+        <v>0.1626016260162602</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07692307692307693</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K11">
-        <v>0.2218934911242604</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L11">
-        <v>0.514792899408284</v>
+        <v>0.5257452574525745</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02071005917159763</v>
+        <v>0.01897018970189702</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7329842931937173</v>
+        <v>0.7476190476190476</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2094240837696335</v>
+        <v>0.1952380952380952</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03141361256544502</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02617801047120419</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6938775510204082</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2653061224489796</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04081632653061224</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01041666666666667</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1927083333333333</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="I15">
-        <v>0.07291666666666667</v>
+        <v>0.08411214953271028</v>
       </c>
       <c r="J15">
-        <v>0.375</v>
+        <v>0.3785046728971962</v>
       </c>
       <c r="K15">
-        <v>0.05208333333333334</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02083333333333333</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05208333333333334</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2239583333333333</v>
+        <v>0.2102803738317757</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01612903225806452</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1774193548387097</v>
+        <v>0.1682692307692308</v>
       </c>
       <c r="I16">
-        <v>0.03763440860215054</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="J16">
-        <v>0.4032258064516129</v>
+        <v>0.3894230769230769</v>
       </c>
       <c r="K16">
-        <v>0.1397849462365591</v>
+        <v>0.1586538461538461</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04301075268817205</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06451612903225806</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1182795698924731</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02306079664570231</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1593291404612159</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I17">
-        <v>0.09433962264150944</v>
+        <v>0.0928030303030303</v>
       </c>
       <c r="J17">
-        <v>0.4339622641509434</v>
+        <v>0.4261363636363636</v>
       </c>
       <c r="K17">
-        <v>0.09853249475890985</v>
+        <v>0.0928030303030303</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01677148846960168</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06289308176100629</v>
+        <v>0.07007575757575757</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1111111111111111</v>
+        <v>0.115530303030303</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02094240837696335</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2198952879581152</v>
+        <v>0.2028301886792453</v>
       </c>
       <c r="I18">
-        <v>0.06806282722513089</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="J18">
-        <v>0.4031413612565445</v>
+        <v>0.4056603773584906</v>
       </c>
       <c r="K18">
-        <v>0.08900523560209424</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02094240837696335</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05759162303664921</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1204188481675393</v>
+        <v>0.1226415094339623</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01892744479495268</v>
+        <v>0.01775568181818182</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2271293375394322</v>
+        <v>0.2258522727272727</v>
       </c>
       <c r="I19">
-        <v>0.07097791798107256</v>
+        <v>0.07244318181818182</v>
       </c>
       <c r="J19">
-        <v>0.3501577287066246</v>
+        <v>0.3529829545454545</v>
       </c>
       <c r="K19">
-        <v>0.1190851735015773</v>
+        <v>0.1186079545454545</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01735015772870662</v>
+        <v>0.01775568181818182</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0007102272727272727</v>
       </c>
       <c r="O19">
-        <v>0.05520504731861198</v>
+        <v>0.0546875</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1411671924290221</v>
+        <v>0.1392045454545454</v>
       </c>
     </row>
   </sheetData>
